--- a/data/trans_media/IQ09_D-Edad-trans_media.xlsx
+++ b/data/trans_media/IQ09_D-Edad-trans_media.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,65; 15,11</t>
+          <t>2,23; 14,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,97</t>
+          <t>0,0; 1,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,35</t>
+          <t>0,0; 2,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 16,5</t>
+          <t>1,35; 16,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 9,77</t>
+          <t>1,19; 9,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 2,77</t>
+          <t>0,22; 3,05</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,22 +764,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>3,65; 12,9</t>
+          <t>3,94; 13,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,0; 5,6</t>
+          <t>0,97; 5,79</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 2,04</t>
+          <t>0,29; 2,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,17; 7,41</t>
+          <t>0,17; 7,59</t>
         </is>
       </c>
     </row>
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,0</t>
+          <t>0,03; 9,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,12 +874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,49</t>
+          <t>0,38; 4,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,51; 7,75</t>
+          <t>0,55; 6,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -889,37 +889,37 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,13; 5,8</t>
+          <t>0,13; 5,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,19; 7,64</t>
+          <t>0,19; 8,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,3</t>
+          <t>0,66; 4,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,22</t>
+          <t>0,0; 6,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,06; 2,81</t>
+          <t>0,06; 2,69</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,33</t>
+          <t>0,71; 4,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,98</t>
+          <t>0,99; 4,74</t>
         </is>
       </c>
     </row>
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 7,16</t>
+          <t>0,64; 8,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,11</t>
+          <t>0,0; 10,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 9,87</t>
+          <t>0,2; 8,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1029,37 +1029,37 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 10,89</t>
+          <t>1,19; 11,46</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 11,69</t>
+          <t>0,0; 11,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,64; 7,26</t>
+          <t>0,65; 7,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 6,63</t>
+          <t>0,63; 6,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,81</t>
+          <t>1,2; 8,22</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,9</t>
+          <t>0,0; 5,83</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,04; 6,09</t>
+          <t>1,03; 6,26</t>
         </is>
       </c>
     </row>
@@ -1144,27 +1144,27 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,28</t>
+          <t>0,0; 5,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,33</t>
+          <t>0,0; 4,16</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,2</t>
+          <t>0,0; 9,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,21; 9,42</t>
+          <t>0,18; 8,63</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,46</t>
+          <t>0,0; 10,72</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,32 +1174,32 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,73</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,87</t>
+          <t>0,0; 1,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 5,8</t>
+          <t>0,88; 5,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,75</t>
+          <t>0,0; 4,36</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,02</t>
+          <t>0,0; 4,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,16; 6,84</t>
+          <t>0,17; 6,03</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,72</t>
+          <t>1,62; 5,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,31; 2,42</t>
+          <t>0,31; 2,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 3,05</t>
+          <t>0,5; 3,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,08; 5,31</t>
+          <t>1,1; 5,49</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,04</t>
+          <t>1,5; 7,08</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,84</t>
+          <t>1,28; 4,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 3,82</t>
+          <t>0,57; 3,78</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,0</t>
+          <t>0,86; 4,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,17</t>
+          <t>2,06; 5,23</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,96; 2,86</t>
+          <t>0,93; 2,9</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,67</t>
+          <t>0,68; 2,64</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,06</t>
+          <t>1,28; 3,99</t>
         </is>
       </c>
     </row>
